--- a/RPN.xlsx
+++ b/RPN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KOEL\ICSS\Deployment\icss-backend\ProcessedData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KOEL\ICSS\Deployment1\ProcessedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD40280-1F6A-4E67-9946-3B504338A09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C34BF7A-7B61-420A-8D6E-8CFDA012ADD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="316">
   <si>
     <t>Severity (S)</t>
   </si>
@@ -651,24 +651,9 @@
     <t>Hose Clip</t>
   </si>
   <si>
-    <t>VMR</t>
-  </si>
-  <si>
-    <t>RPM</t>
-  </si>
-  <si>
-    <t>Mains</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
     <t>Adblue</t>
   </si>
   <si>
-    <t>Alarm</t>
-  </si>
-  <si>
     <t>Washer</t>
   </si>
   <si>
@@ -723,9 +708,6 @@
     <t>Engine Crank</t>
   </si>
   <si>
-    <t>Diesel Leakage</t>
-  </si>
-  <si>
     <t>AVR</t>
   </si>
   <si>
@@ -988,6 +970,9 @@
   </si>
   <si>
     <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Leakage</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1042,7 +1027,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1323,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F318"/>
+  <dimension ref="A1:F313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="A320" sqref="A320"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="193" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203:XFD206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5155,7 +5139,7 @@
         <v>108</v>
       </c>
       <c r="F191" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -5260,7 +5244,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B197">
         <v>10</v>
@@ -5275,7 +5259,7 @@
         <v>100</v>
       </c>
       <c r="F197" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -5383,19 +5367,19 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C203">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E203">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="F203" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -5403,19 +5387,19 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D204">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E204">
-        <v>7</v>
+        <v>225</v>
       </c>
       <c r="F204" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -5423,16 +5407,16 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C205">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E205">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F205" t="s">
         <v>64</v>
@@ -5446,16 +5430,16 @@
         <v>4</v>
       </c>
       <c r="C206">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E206">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="F206" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -5463,19 +5447,19 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C207">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D207">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E207">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F207" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -5483,19 +5467,19 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E208">
-        <v>336</v>
+        <v>180</v>
       </c>
       <c r="F208" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -5503,19 +5487,19 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C209">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E209">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="F209" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -5523,19 +5507,19 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C210">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D210">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E210">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="F210" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -5543,19 +5527,19 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C211">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D211">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E211">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F211" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -5563,19 +5547,19 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C212">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="F212" t="s">
-        <v>312</v>
+        <v>64</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -5583,7 +5567,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C213">
         <v>9</v>
@@ -5592,10 +5576,10 @@
         <v>4</v>
       </c>
       <c r="E213">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="F213" t="s">
-        <v>312</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -5603,19 +5587,19 @@
         <v>219</v>
       </c>
       <c r="B214">
+        <v>9</v>
+      </c>
+      <c r="C214">
         <v>10</v>
       </c>
-      <c r="C214">
-        <v>2</v>
-      </c>
       <c r="D214">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E214">
-        <v>40</v>
+        <v>810</v>
       </c>
       <c r="F214" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -5623,19 +5607,19 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C215">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E215">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="F215" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -5643,19 +5627,19 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C216">
         <v>4</v>
       </c>
       <c r="D216">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="F216" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -5663,19 +5647,19 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C217">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E217">
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="F217" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -5683,19 +5667,19 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C218">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D218">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E218">
-        <v>324</v>
+        <v>56</v>
       </c>
       <c r="F218" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -5706,16 +5690,16 @@
         <v>9</v>
       </c>
       <c r="C219">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D219">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E219">
-        <v>810</v>
+        <v>36</v>
       </c>
       <c r="F219" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -5723,67 +5707,67 @@
         <v>225</v>
       </c>
       <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="C220">
         <v>3</v>
       </c>
-      <c r="C220">
-        <v>7</v>
-      </c>
       <c r="D220">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E220">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="F220" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>226</v>
       </c>
       <c r="B221">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C221">
         <v>4</v>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="F221" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>227</v>
+        <v>315</v>
       </c>
       <c r="B222">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D222">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E222">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="F222" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B223">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C223">
         <v>7</v>
@@ -5792,7 +5776,7 @@
         <v>2</v>
       </c>
       <c r="E223">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F223" t="s">
         <v>64</v>
@@ -5800,19 +5784,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B224">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C224">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E224">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F224" t="s">
         <v>64</v>
@@ -5820,79 +5804,79 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225">
+        <v>7</v>
+      </c>
+      <c r="C225">
+        <v>9</v>
+      </c>
+      <c r="D225">
+        <v>6</v>
+      </c>
+      <c r="E225">
+        <v>378</v>
+      </c>
+      <c r="F225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>230</v>
       </c>
-      <c r="B225">
+      <c r="B226">
         <v>2</v>
       </c>
-      <c r="C225">
-        <v>3</v>
-      </c>
-      <c r="D225">
-        <v>2</v>
-      </c>
-      <c r="E225">
-        <v>12</v>
-      </c>
-      <c r="F225" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>231</v>
-      </c>
-      <c r="B226">
-        <v>6</v>
-      </c>
       <c r="C226">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D226">
         <v>6</v>
       </c>
       <c r="E226">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="F226" t="s">
-        <v>312</v>
+        <v>64</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B227">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C227">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D227">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E227">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="F227" t="s">
-        <v>312</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B228">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C228">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D228">
         <v>2</v>
       </c>
       <c r="E228">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="F228" t="s">
         <v>64</v>
@@ -5900,19 +5884,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C229">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D229">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E229">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F229" t="s">
         <v>64</v>
@@ -5920,99 +5904,99 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B230">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C230">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D230">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E230">
-        <v>378</v>
+        <v>84</v>
       </c>
       <c r="F230" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C231">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D231">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E231">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="F231" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B232">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C232">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E232">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="F232" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B233">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C233">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E233">
-        <v>16</v>
+        <v>450</v>
       </c>
       <c r="F233" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C234">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F234" t="s">
         <v>64</v>
@@ -6020,19 +6004,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B235">
+        <v>5</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
         <v>3</v>
       </c>
-      <c r="C235">
-        <v>4</v>
-      </c>
-      <c r="D235">
-        <v>7</v>
-      </c>
       <c r="E235">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="F235" t="s">
         <v>64</v>
@@ -6040,87 +6024,87 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B236">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C236">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="F236" t="s">
-        <v>312</v>
+        <v>64</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B237">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C237">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D237">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E237">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F237" t="s">
-        <v>312</v>
+        <v>64</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B238">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D238">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E238">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="F238" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B239">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C239">
         <v>9</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E239">
-        <v>90</v>
+        <v>810</v>
       </c>
       <c r="F239" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B240">
         <v>5</v>
@@ -6129,10 +6113,10 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E240">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F240" t="s">
         <v>64</v>
@@ -6140,39 +6124,39 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B241">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E241">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="F241" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B242">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C242">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D242">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E242">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="F242" t="s">
         <v>64</v>
@@ -6180,59 +6164,59 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B243">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C243">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D243">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E243">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="F243" t="s">
-        <v>312</v>
+        <v>64</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B244">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C244">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D244">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E244">
-        <v>810</v>
+        <v>54</v>
       </c>
       <c r="F244" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B245">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E245">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="F245" t="s">
         <v>64</v>
@@ -6240,39 +6224,39 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>251</v>
+        <v>308</v>
       </c>
       <c r="B246">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C246">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>288</v>
+        <v>35</v>
       </c>
       <c r="F246" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B247">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C247">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E247">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F247" t="s">
         <v>64</v>
@@ -6280,19 +6264,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B248">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E248">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F248" t="s">
         <v>64</v>
@@ -6300,59 +6284,59 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B249">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C249">
+        <v>10</v>
+      </c>
+      <c r="D249">
         <v>3</v>
       </c>
-      <c r="D249">
-        <v>9</v>
-      </c>
       <c r="E249">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="F249" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B250">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D250">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E250">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="F250" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="B251">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C251">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E251">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F251" t="s">
         <v>64</v>
@@ -6360,39 +6344,39 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B252">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C252">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E252">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="F252" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B253">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D253">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E253">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F253" t="s">
         <v>64</v>
@@ -6400,39 +6384,39 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B254">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C254">
+        <v>6</v>
+      </c>
+      <c r="D254">
         <v>10</v>
       </c>
-      <c r="D254">
-        <v>3</v>
-      </c>
       <c r="E254">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="F254" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255">
         <v>10</v>
       </c>
-      <c r="C255">
-        <v>6</v>
-      </c>
       <c r="D255">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E255">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="F255" t="s">
         <v>4</v>
@@ -6440,19 +6424,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
         <v>2</v>
       </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
       <c r="D256">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E256">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F256" t="s">
         <v>64</v>
@@ -6460,39 +6444,39 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="B257">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C257">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D257">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E257">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F257" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+      <c r="D258">
         <v>3</v>
       </c>
-      <c r="C258">
-        <v>6</v>
-      </c>
-      <c r="D258">
-        <v>2</v>
-      </c>
       <c r="E258">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F258" t="s">
         <v>64</v>
@@ -6500,59 +6484,59 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="B259">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C259">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D259">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E259">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="F259" t="s">
-        <v>312</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B260">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C260">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D260">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E260">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="F260" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B261">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C261">
+        <v>10</v>
+      </c>
+      <c r="D261">
         <v>2</v>
       </c>
-      <c r="D261">
-        <v>7</v>
-      </c>
       <c r="E261">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F261" t="s">
         <v>64</v>
@@ -6560,39 +6544,39 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>34</v>
+        <v>263</v>
       </c>
       <c r="B262">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C262">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D262">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E262">
-        <v>140</v>
+        <v>384</v>
       </c>
       <c r="F262" t="s">
-        <v>312</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B263">
+        <v>9</v>
+      </c>
+      <c r="C263">
+        <v>7</v>
+      </c>
+      <c r="D263">
         <v>1</v>
       </c>
-      <c r="C263">
-        <v>2</v>
-      </c>
-      <c r="D263">
-        <v>3</v>
-      </c>
       <c r="E263">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="F263" t="s">
         <v>64</v>
@@ -6600,19 +6584,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B264">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C264">
         <v>7</v>
       </c>
       <c r="D264">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E264">
-        <v>315</v>
+        <v>630</v>
       </c>
       <c r="F264" t="s">
         <v>4</v>
@@ -6620,19 +6604,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
       <c r="C265">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D265">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E265">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F265" t="s">
         <v>64</v>
@@ -6640,59 +6624,59 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B266">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C266">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D266">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E266">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="F266" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B267">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C267">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D267">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E267">
-        <v>384</v>
+        <v>180</v>
       </c>
       <c r="F267" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B268">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C268">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E268">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F268" t="s">
         <v>64</v>
@@ -6700,99 +6684,99 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>5</v>
+      </c>
+      <c r="D269">
         <v>10</v>
       </c>
-      <c r="C269">
-        <v>7</v>
-      </c>
-      <c r="D269">
-        <v>9</v>
-      </c>
       <c r="E269">
-        <v>630</v>
+        <v>50</v>
       </c>
       <c r="F269" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C270">
         <v>8</v>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E270">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="F270" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B271">
         <v>6</v>
       </c>
       <c r="C271">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D271">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E271">
-        <v>144</v>
+        <v>324</v>
       </c>
       <c r="F271" t="s">
-        <v>312</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>273</v>
-      </c>
-      <c r="B272" s="4">
-        <v>10</v>
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>8</v>
       </c>
       <c r="C272">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D272">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E272">
-        <v>180</v>
+        <v>512</v>
       </c>
       <c r="F272" t="s">
-        <v>312</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C273">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D273">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E273">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="F273" t="s">
         <v>64</v>
@@ -6800,39 +6784,39 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C274">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D274">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E274">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="F274" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="B275">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C275">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D275">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E275">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="F275" t="s">
         <v>4</v>
@@ -6840,59 +6824,59 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B276">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C276">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D276">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E276">
-        <v>324</v>
+        <v>100</v>
       </c>
       <c r="F276" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B277">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C277">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D277">
         <v>8</v>
       </c>
       <c r="E277">
-        <v>512</v>
+        <v>8</v>
       </c>
       <c r="F277" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B278">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C278">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E278">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F278" t="s">
         <v>64</v>
@@ -6900,39 +6884,39 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B279">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C279">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D279">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E279">
-        <v>108</v>
+        <v>280</v>
       </c>
       <c r="F279" t="s">
-        <v>312</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="B280">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C280">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D280">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E280">
-        <v>252</v>
+        <v>500</v>
       </c>
       <c r="F280" t="s">
         <v>4</v>
@@ -6943,36 +6927,36 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C281">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D281">
         <v>2</v>
       </c>
       <c r="E281">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F281" t="s">
-        <v>312</v>
+        <v>64</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>135</v>
       </c>
       <c r="B282">
+        <v>7</v>
+      </c>
+      <c r="C282">
+        <v>4</v>
+      </c>
+      <c r="D282">
         <v>1</v>
       </c>
-      <c r="C282">
-        <v>1</v>
-      </c>
-      <c r="D282">
-        <v>8</v>
-      </c>
       <c r="E282">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F282" t="s">
         <v>64</v>
@@ -6980,159 +6964,159 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C283">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E283">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="F283" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C284">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E284">
-        <v>280</v>
+        <v>27</v>
       </c>
       <c r="F284" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C285">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D285">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E285">
-        <v>500</v>
+        <v>63</v>
       </c>
       <c r="F285" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="B286">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C286">
         <v>4</v>
       </c>
       <c r="D286">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E286">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="F286" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>135</v>
+        <v>284</v>
       </c>
       <c r="B287">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C287">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E287">
-        <v>28</v>
+        <v>420</v>
       </c>
       <c r="F287" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>21</v>
       </c>
       <c r="B288">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C288">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D288">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E288">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="F288" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B289">
+        <v>5</v>
+      </c>
+      <c r="C289">
+        <v>9</v>
+      </c>
+      <c r="D289">
         <v>3</v>
       </c>
-      <c r="C289">
-        <v>1</v>
-      </c>
-      <c r="D289">
-        <v>9</v>
-      </c>
       <c r="E289">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="F289" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B290">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C290">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D290">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E290">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F290" t="s">
         <v>64</v>
@@ -7140,139 +7124,139 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="B291">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C291">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D291">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E291">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="F291" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="B292">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C292">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D292">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E292">
-        <v>420</v>
+        <v>96</v>
       </c>
       <c r="F292" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>21</v>
+        <v>289</v>
       </c>
       <c r="B293">
         <v>4</v>
       </c>
       <c r="C293">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D293">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E293">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="F293" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
       <c r="B294">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C294">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D294">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E294">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="F294" t="s">
-        <v>312</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C295">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D295">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E295">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="F295" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B296">
         <v>4</v>
       </c>
       <c r="C296">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D296">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E296">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="F296" t="s">
-        <v>312</v>
+        <v>64</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="B297">
         <v>3</v>
       </c>
       <c r="C297">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D297">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E297">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="F297" t="s">
         <v>64</v>
@@ -7280,79 +7264,79 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B298">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C298">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D298">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E298">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="F298" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="B299">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C299">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D299">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E299">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="F299" t="s">
-        <v>4</v>
+        <v>306</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B300">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C300">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D300">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E300">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="F300" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B301">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C301">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D301">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E301">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F301" t="s">
         <v>64</v>
@@ -7360,19 +7344,19 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B302">
         <v>3</v>
       </c>
       <c r="C302">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E302">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F302" t="s">
         <v>64</v>
@@ -7383,19 +7367,19 @@
         <v>299</v>
       </c>
       <c r="B303">
+        <v>5</v>
+      </c>
+      <c r="C303">
+        <v>8</v>
+      </c>
+      <c r="D303">
         <v>2</v>
       </c>
-      <c r="C303">
-        <v>7</v>
-      </c>
-      <c r="D303">
-        <v>9</v>
-      </c>
       <c r="E303">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="F303" t="s">
-        <v>312</v>
+        <v>64</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -7403,19 +7387,19 @@
         <v>300</v>
       </c>
       <c r="B304">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C304">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D304">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E304">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="F304" t="s">
-        <v>312</v>
+        <v>64</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -7423,19 +7407,19 @@
         <v>301</v>
       </c>
       <c r="B305">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C305">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D305">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E305">
-        <v>96</v>
+        <v>270</v>
       </c>
       <c r="F305" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -7443,19 +7427,19 @@
         <v>302</v>
       </c>
       <c r="B306">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D306">
         <v>7</v>
       </c>
       <c r="E306">
-        <v>70</v>
+        <v>567</v>
       </c>
       <c r="F306" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -7463,36 +7447,36 @@
         <v>303</v>
       </c>
       <c r="B307">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C307">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D307">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E307">
-        <v>72</v>
+        <v>378</v>
       </c>
       <c r="F307" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B308">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C308">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D308">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E308">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F308" t="s">
         <v>64</v>
@@ -7500,19 +7484,19 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>306</v>
+        <v>119</v>
       </c>
       <c r="B309">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C309">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D309">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E309">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F309" t="s">
         <v>64</v>
@@ -7520,39 +7504,39 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>307</v>
-      </c>
-      <c r="B310" s="4">
-        <v>6</v>
+        <v>305</v>
+      </c>
+      <c r="B310">
+        <v>8</v>
       </c>
       <c r="C310">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D310">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E310">
-        <v>270</v>
+        <v>24</v>
       </c>
       <c r="F310" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>308</v>
-      </c>
-      <c r="B311" s="4">
+        <v>278</v>
+      </c>
+      <c r="B311">
         <v>9</v>
       </c>
       <c r="C311">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D311">
         <v>7</v>
       </c>
       <c r="E311">
-        <v>567</v>
+        <v>378</v>
       </c>
       <c r="F311" t="s">
         <v>4</v>
@@ -7560,141 +7544,41 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>309</v>
-      </c>
-      <c r="B312" s="4">
-        <v>6</v>
+        <v>287</v>
+      </c>
+      <c r="B312">
+        <v>8</v>
       </c>
       <c r="C312">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D312">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E312">
-        <v>378</v>
+        <v>48</v>
       </c>
       <c r="F312" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>310</v>
-      </c>
-      <c r="B313" s="4">
+        <v>298</v>
+      </c>
+      <c r="B313">
         <v>1</v>
       </c>
       <c r="C313">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D313">
         <v>5</v>
       </c>
       <c r="E313">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F313" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>119</v>
-      </c>
-      <c r="B314" s="4">
-        <v>8</v>
-      </c>
-      <c r="C314">
-        <v>1</v>
-      </c>
-      <c r="D314">
-        <v>3</v>
-      </c>
-      <c r="E314">
-        <v>24</v>
-      </c>
-      <c r="F314" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>311</v>
-      </c>
-      <c r="B315">
-        <v>8</v>
-      </c>
-      <c r="C315">
-        <v>1</v>
-      </c>
-      <c r="D315">
-        <v>3</v>
-      </c>
-      <c r="E315">
-        <v>24</v>
-      </c>
-      <c r="F315" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>284</v>
-      </c>
-      <c r="B316">
-        <v>9</v>
-      </c>
-      <c r="C316">
-        <v>6</v>
-      </c>
-      <c r="D316">
-        <v>7</v>
-      </c>
-      <c r="E316">
-        <v>378</v>
-      </c>
-      <c r="F316" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>293</v>
-      </c>
-      <c r="B317">
-        <v>8</v>
-      </c>
-      <c r="C317">
-        <v>3</v>
-      </c>
-      <c r="D317">
-        <v>2</v>
-      </c>
-      <c r="E317">
-        <v>48</v>
-      </c>
-      <c r="F317" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>304</v>
-      </c>
-      <c r="B318">
-        <v>1</v>
-      </c>
-      <c r="C318">
-        <v>3</v>
-      </c>
-      <c r="D318">
-        <v>5</v>
-      </c>
-      <c r="E318">
-        <v>15</v>
-      </c>
-      <c r="F318" t="s">
         <v>64</v>
       </c>
     </row>
